--- a/MSVC/Test_FluentInterface/example_profile.xlsx
+++ b/MSVC/Test_FluentInterface/example_profile.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="example_profile" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -871,15 +871,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4348"/>
+  <dimension ref="A1:D4348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3426" workbookViewId="0">
-      <selection activeCell="C3443" sqref="C3443"/>
+    <sheetView tabSelected="1" topLeftCell="A3429" workbookViewId="0">
+      <selection activeCell="D3444" sqref="D3444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -18082,17 +18083,17 @@
         <v>9.9999997999999993E-3</v>
       </c>
     </row>
-    <row r="3441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3441" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3442" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3443">
         <v>0.21623532000000001</v>
       </c>
@@ -18100,68 +18101,72 @@
         <f>SUM(A3443:A3742)</f>
         <v>64.46980941999999</v>
       </c>
-    </row>
-    <row r="3444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3443">
+        <f>AVERAGE(A3443:A3742)</f>
+        <v>0.21489936473333329</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3444">
         <v>0.21605028000000001</v>
       </c>
     </row>
-    <row r="3445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3445">
         <v>0.21542576999999999</v>
       </c>
     </row>
-    <row r="3446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3446">
         <v>0.21437566</v>
       </c>
     </row>
-    <row r="3447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3447">
         <v>0.21234158</v>
       </c>
     </row>
-    <row r="3448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3448">
         <v>0.21624136999999999</v>
       </c>
     </row>
-    <row r="3449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3449">
         <v>0.21605329000000001</v>
       </c>
     </row>
-    <row r="3450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3450">
         <v>0.21542855999999999</v>
       </c>
     </row>
-    <row r="3451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3451">
         <v>0.21438117000000001</v>
       </c>
     </row>
-    <row r="3452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3452">
         <v>0.21235523000000001</v>
       </c>
     </row>
-    <row r="3453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3453">
         <v>0.21624604</v>
       </c>
     </row>
-    <row r="3454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3454">
         <v>0.21605590999999999</v>
       </c>
     </row>
-    <row r="3455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3455">
         <v>0.21543114999999999</v>
       </c>
     </row>
-    <row r="3456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3456">
         <v>0.21438667</v>
       </c>
